--- a/output_additional_column/1988.xlsx
+++ b/output_additional_column/1988.xlsx
@@ -490,7 +490,7 @@
         <v>27938</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>41883</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>34176</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>66951</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>16248</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>38872</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>29604</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>45204</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>67546</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>35388</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         <v>39747</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>68655</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>20518</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>90247</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>78285</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>34176</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>84219</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="19">
@@ -898,7 +898,7 @@
         <v>15716</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         <v>87679</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="21">
@@ -946,7 +946,7 @@
         <v>68487</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         <v>84219</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         <v>23331</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="24">
@@ -1018,7 +1018,7 @@
         <v>23331</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="25">
@@ -1042,7 +1042,7 @@
         <v>24645</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="26">
@@ -1066,7 +1066,7 @@
         <v>13724</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="27">
@@ -1090,7 +1090,7 @@
         <v>68655</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="28">
@@ -1114,7 +1114,7 @@
         <v>25008</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="29">
@@ -1138,7 +1138,7 @@
         <v>67546</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
     <row r="30">
@@ -1162,7 +1162,7 @@
         <v>68487</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76711487391</v>
+        <v>44703.79033443925</v>
       </c>
     </row>
   </sheetData>
